--- a/simulations/cobb_douglas_XnY1/results/hold_out_0.10/recopilacion_datos_final_mod.xlsx
+++ b/simulations/cobb_douglas_XnY1/results/hold_out_0.10/recopilacion_datos_final_mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/simulations/cobb_douglas_XnY1/results/hold_out_0.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F7C95CA0-AE62-414B-BEBA-8C6128A77069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53E2B06-8733-439E-A450-43502FE87A2F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{F7C95CA0-AE62-414B-BEBA-8C6128A77069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0967095-54A7-4190-B8B0-8BF7DA55291C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7117,8 +7117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413D19F3-584E-4F84-8ACB-441FCCF93CED}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
